--- a/src/routes/calendario.xlsx
+++ b/src/routes/calendario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josga\Desktop\ProjectCalendar\src\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54219D3-BAA7-48B0-804C-4098AEEAB390}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C767EE-2C7D-4023-A640-C665420643C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relacion de Materias (1)" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="385">
   <si>
     <t>Materia</t>
   </si>
@@ -199,9 +199,6 @@
     <t>JUEVES 14:00-16:00 LG110</t>
   </si>
   <si>
-    <t>1156001A</t>
-  </si>
-  <si>
     <t>PROYECTO DE GRADO</t>
   </si>
   <si>
@@ -1178,21 +1175,6 @@
   </si>
   <si>
     <t>VIERNES 08:00-10:00 SA401</t>
-  </si>
-  <si>
-    <t>0151018A</t>
-  </si>
-  <si>
-    <t>TRABAJO DE GRADO</t>
-  </si>
-  <si>
-    <t>1155810A</t>
-  </si>
-  <si>
-    <t>ADQUISICIONES EN LA GESTIóN DE</t>
-  </si>
-  <si>
-    <t>0151020A</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1683,6 +1665,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1728,7 +1725,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1745,6 +1742,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1752,6 +1752,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2109,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,13 +2148,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>6079</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2153,21 +2162,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>7491</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2175,21 +2184,21 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>5159</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2197,21 +2206,21 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>1496</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2219,21 +2228,21 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>1517</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2241,9 +2250,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
@@ -2263,13 +2272,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>1995</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2277,21 +2286,21 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="7">
         <v>7256</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2299,21 +2308,21 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>4608</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2321,21 +2330,21 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>5372</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2343,21 +2352,21 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>5372</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2365,21 +2374,21 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>1713</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2387,21 +2396,21 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>6209</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2409,21 +2418,21 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>6398</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2431,656 +2440,654 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="B29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1496</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1496</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5096</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2">
-        <v>5096</v>
+        <v>2517</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2517</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="A33" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="B33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="7">
+        <v>6693</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="6">
-        <v>6693</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="4" t="s">
+      <c r="A35" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="B35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="7">
+        <v>5981</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="6">
-        <v>5981</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4186</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2">
-        <v>4186</v>
+        <v>2083</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2">
-        <v>2083</v>
+        <v>5096</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="2">
-        <v>5096</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="A40" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="B40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2330</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="6">
-        <v>2330</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="4" t="s">
+      <c r="A42" s="7" t="s">
         <v>90</v>
       </c>
+      <c r="B42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3556</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="6">
-        <v>3556</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="4" t="s">
+      <c r="A44" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="B44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="7">
+        <v>3852</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="7">
+        <v>3325</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="7">
+        <v>4041</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1111</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="7">
+        <v>6398</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="7">
+        <v>6529</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="7">
+        <v>7338</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="7">
+        <v>4412</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="6">
-        <v>3852</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="6">
-        <v>3325</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="6">
-        <v>4041</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1111</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="6">
-        <v>6398</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="6">
-        <v>6529</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="6">
-        <v>7338</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="6">
-        <v>4412</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="4" t="s">
-        <v>121</v>
+      <c r="C60" s="7">
+        <v>4608</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="6">
-        <v>4608</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>124</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="2">
+        <v>6736</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2">
-        <v>6736</v>
+        <v>6079</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="C64" s="2">
-        <v>6079</v>
+        <v>2049</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="2">
-        <v>2049</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="A65" s="7" t="s">
         <v>132</v>
       </c>
+      <c r="B65" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="7">
+        <v>2523</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="6">
-        <v>2523</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="4" t="s">
+      <c r="A67" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="B67" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1088</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" s="6">
-        <v>1088</v>
-      </c>
-      <c r="D68" s="3" t="s">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>139</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3556</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2">
-        <v>3556</v>
+        <v>4412</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C71" s="2">
-        <v>4412</v>
+        <v>1111</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C72" s="2">
+        <v>5299</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="7">
+        <v>4412</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3561</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="7">
         <v>1111</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C73" s="2">
-        <v>5299</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="6">
-        <v>4412</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" s="2">
-        <v>3561</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>157</v>
+      <c r="D76" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="6">
-        <v>1111</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="4" t="s">
+      <c r="A78" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="B78" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="7">
+        <v>2330</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C79" s="6">
-        <v>2330</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="4" t="s">
+      <c r="A80" s="7" t="s">
         <v>164</v>
       </c>
+      <c r="B80" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1827</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="6">
-        <v>1827</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="4" t="s">
+      <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="B82" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="7">
+        <v>1757</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C83" s="6">
-        <v>1757</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3088,57 +3095,57 @@
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="4" t="s">
+      <c r="A85" s="2" t="s">
         <v>172</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2248</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C86" s="2">
-        <v>2248</v>
+        <v>1178</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" s="2">
-        <v>1178</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="A87" s="7" t="s">
         <v>178</v>
       </c>
+      <c r="B87" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="7">
+        <v>6143</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C88" s="6">
-        <v>6143</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="5" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3146,325 +3153,325 @@
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="4" t="s">
+      <c r="A90" s="7" t="s">
         <v>182</v>
       </c>
+      <c r="B90" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="7">
+        <v>5096</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B91" s="6" t="s">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="7">
+        <v>3325</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="7">
+        <v>2261</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4784</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="6">
-        <v>5096</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C93" s="6">
-        <v>3325</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="6">
-        <v>2261</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" s="2">
-        <v>4784</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>196</v>
+      <c r="C97" s="7">
+        <v>3852</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="6">
-        <v>3852</v>
-      </c>
-      <c r="D98" s="3" t="s">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="4" t="s">
+      <c r="A99" s="2" t="s">
         <v>199</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2248</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C100" s="2">
-        <v>2248</v>
+        <v>6209</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" s="2">
-        <v>6209</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="A101" s="7" t="s">
         <v>204</v>
       </c>
+      <c r="B101" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1713</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" s="6">
-        <v>1713</v>
-      </c>
-      <c r="D102" s="3" t="s">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="4" t="s">
+      <c r="A103" s="7" t="s">
         <v>208</v>
       </c>
+      <c r="B103" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="7">
+        <v>6076</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" s="6">
-        <v>6076</v>
-      </c>
-      <c r="D104" s="3" t="s">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="4" t="s">
+      <c r="A105" s="2" t="s">
         <v>212</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="2">
+        <v>4608</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C106" s="2">
-        <v>4608</v>
+        <v>3325</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="C107" s="2">
-        <v>3325</v>
+        <v>2517</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" s="2">
-        <v>2517</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="A108" s="7" t="s">
         <v>219</v>
       </c>
+      <c r="B108" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" s="7">
+        <v>4041</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C109" s="6">
-        <v>4041</v>
-      </c>
-      <c r="D109" s="3" t="s">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="4" t="s">
+      <c r="A110" s="7" t="s">
         <v>222</v>
       </c>
+      <c r="B110" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1111</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="6">
-        <v>1111</v>
-      </c>
-      <c r="D111" s="3" t="s">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="4" t="s">
+      <c r="A112" s="7" t="s">
         <v>226</v>
       </c>
+      <c r="B112" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" s="7">
+        <v>6398</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C113" s="6">
-        <v>6398</v>
-      </c>
-      <c r="D113" s="3" t="s">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="4" t="s">
+      <c r="A114" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="B114" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1856</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C115" s="2">
-        <v>1856</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="A115" s="7" t="s">
         <v>232</v>
       </c>
+      <c r="B115" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="7">
+        <v>5610</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116" s="6">
-        <v>5610</v>
-      </c>
-      <c r="D116" s="3" t="s">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3472,29 +3479,29 @@
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="4" t="s">
+      <c r="A118" s="7" t="s">
         <v>237</v>
       </c>
+      <c r="B118" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" s="7">
+        <v>1726</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C119" s="6">
-        <v>1726</v>
-      </c>
-      <c r="D119" s="3" t="s">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="5" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3502,95 +3509,95 @@
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="4" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="4" t="s">
+      <c r="A121" s="7" t="s">
         <v>241</v>
       </c>
+      <c r="B121" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1872</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C122" s="6">
-        <v>1872</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="4" t="s">
+      <c r="A123" s="7" t="s">
         <v>244</v>
       </c>
+      <c r="B123" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" s="7">
+        <v>2292</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C124" s="6">
-        <v>2292</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="4" t="s">
-        <v>237</v>
+      <c r="B126" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" s="2">
+        <v>4286</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C127" s="2">
-        <v>4286</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="A127" s="7" t="s">
         <v>249</v>
       </c>
+      <c r="B127" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1802</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C128" s="6">
-        <v>1802</v>
-      </c>
-      <c r="D128" s="3" t="s">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="5" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3598,938 +3605,1134 @@
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="4" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="4" t="s">
+      <c r="A130" s="7" t="s">
         <v>253</v>
       </c>
+      <c r="B130" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="7">
+        <v>1995</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C131" s="6">
-        <v>1995</v>
-      </c>
-      <c r="D131" s="3" t="s">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="4" t="s">
+      <c r="A132" s="7" t="s">
         <v>257</v>
       </c>
+      <c r="B132" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C132" s="7">
+        <v>1713</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C133" s="6">
-        <v>1713</v>
-      </c>
-      <c r="D133" s="3" t="s">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="4" t="s">
+      <c r="A134" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="B134" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1178</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C135" s="2">
-        <v>1178</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="A135" s="7" t="s">
         <v>262</v>
       </c>
+      <c r="B135" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1496</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C136" s="6">
-        <v>1496</v>
-      </c>
-      <c r="D136" s="3" t="s">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="4" t="s">
+      <c r="A137" s="7" t="s">
         <v>266</v>
       </c>
+      <c r="B137" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1872</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C138" s="6">
-        <v>1872</v>
-      </c>
-      <c r="D138" s="3" t="s">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="4" t="s">
+      <c r="A139" s="2" t="s">
         <v>269</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1827</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C140" s="2">
-        <v>1827</v>
+        <v>3556</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C141" s="2">
-        <v>3556</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="A141" s="7" t="s">
         <v>275</v>
       </c>
+      <c r="B141" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C141" s="7">
+        <v>3325</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C142" s="6">
-        <v>3325</v>
-      </c>
-      <c r="D142" s="3" t="s">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="4" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="4" t="s">
+      <c r="A143" s="2" t="s">
         <v>278</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2517</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C144" s="2">
-        <v>2517</v>
+        <v>1111</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1111</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="A145" s="7" t="s">
         <v>284</v>
       </c>
+      <c r="B145" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="7">
+        <v>7491</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="6">
-        <v>7491</v>
-      </c>
-      <c r="D146" s="3" t="s">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="4" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="4" t="s">
+      <c r="A147" s="7" t="s">
         <v>287</v>
       </c>
+      <c r="B147" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C147" s="7">
+        <v>5610</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C148" s="6">
-        <v>5610</v>
-      </c>
-      <c r="D148" s="3" t="s">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="4" t="s">
+      <c r="A149" s="2" t="s">
         <v>290</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="2">
+        <v>7338</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C150" s="2">
-        <v>7338</v>
+        <v>2049</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C151" s="2">
+      <c r="A151" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="7">
+        <v>4041</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1872</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" s="7">
+        <v>6398</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C156" s="7">
+        <v>1915</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C158" s="7">
         <v>2049</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C152" s="6">
-        <v>4041</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C154" s="2">
-        <v>1872</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B155" s="6" t="s">
+      <c r="D158" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C160" s="7">
         <v>6398</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C157" s="6">
-        <v>1915</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-      <c r="D158" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C159" s="6">
-        <v>2049</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="4" t="s">
-        <v>310</v>
+      <c r="D160" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C161" s="6">
-        <v>6398</v>
-      </c>
-      <c r="D161" s="3" t="s">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="4" t="s">
-        <v>228</v>
+      <c r="B162" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C162" s="2">
+        <v>5990</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C163" s="2">
-        <v>5990</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="A163" s="7" t="s">
         <v>315</v>
       </c>
+      <c r="B163" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" s="7">
+        <v>3852</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C164" s="6">
-        <v>3852</v>
-      </c>
-      <c r="D164" s="3" t="s">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="4" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="4" t="s">
+      <c r="A165" s="7" t="s">
         <v>318</v>
       </c>
+      <c r="B165" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C165" s="7">
+        <v>5262</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C166" s="6">
-        <v>5262</v>
-      </c>
-      <c r="D166" s="3" t="s">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="4" t="s">
+      <c r="A167" s="7" t="s">
         <v>321</v>
       </c>
+      <c r="B167" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" s="7">
+        <v>1496</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C168" s="6">
-        <v>1496</v>
-      </c>
-      <c r="D168" s="3" t="s">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="4" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="4" t="s">
+      <c r="A169" s="7" t="s">
         <v>324</v>
       </c>
+      <c r="B169" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C169" s="7">
+        <v>2330</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C170" s="6">
-        <v>2330</v>
-      </c>
-      <c r="D170" s="3" t="s">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="4" t="s">
+      <c r="A171" s="2" t="s">
         <v>327</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C172" s="2">
-        <v>1995</v>
+        <v>3852</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C173" s="2">
-        <v>3852</v>
+        <v>6908</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>335</v>
+        <v>65</v>
       </c>
       <c r="C174" s="2">
-        <v>6908</v>
+        <v>1995</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C175" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="A175" s="7" t="s">
         <v>338</v>
       </c>
+      <c r="B175" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C175" s="7">
+        <v>1872</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C176" s="6">
-        <v>1872</v>
-      </c>
-      <c r="D176" s="3" t="s">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="4" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="7"/>
-      <c r="D177" s="4" t="s">
+      <c r="A177" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="B177" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C177" s="2">
+        <v>6525</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C178" s="2">
-        <v>6525</v>
-      </c>
-      <c r="D178" s="2" t="s">
+      <c r="A178" s="7" t="s">
         <v>343</v>
       </c>
+      <c r="B178" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="7">
+        <v>6529</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="6">
-        <v>6529</v>
-      </c>
-      <c r="D179" s="3" t="s">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="4" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="7"/>
-      <c r="D180" s="4" t="s">
+      <c r="A180" s="7" t="s">
         <v>346</v>
       </c>
+      <c r="B180" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="7">
+        <v>2523</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" s="6">
-        <v>2523</v>
-      </c>
-      <c r="D181" s="3" t="s">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="4" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="4" t="s">
+      <c r="A182" s="7" t="s">
         <v>349</v>
       </c>
+      <c r="B182" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C182" s="7">
+        <v>6076</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C183" s="6">
-        <v>6076</v>
-      </c>
-      <c r="D183" s="3" t="s">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="4" t="s">
+      <c r="A184" s="2" t="s">
         <v>353</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C184" s="2">
+        <v>4229</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>126</v>
+        <v>356</v>
       </c>
       <c r="C185" s="2">
-        <v>4229</v>
+        <v>5439</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>357</v>
+        <v>128</v>
       </c>
       <c r="C186" s="2">
-        <v>5439</v>
+        <v>1995</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C187" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="A187" s="7" t="s">
         <v>360</v>
       </c>
+      <c r="B187" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C187" s="7">
+        <v>6143</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B188" s="6" t="s">
+      <c r="A188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C188" s="6">
-        <v>6143</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="4" t="s">
-        <v>171</v>
+      <c r="A190" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C190" s="7">
+        <v>6209</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C191" s="6">
-        <v>6209</v>
-      </c>
-      <c r="D191" s="3" t="s">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="4" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="7"/>
-      <c r="B192" s="7"/>
-      <c r="C192" s="7"/>
-      <c r="D192" s="4" t="s">
+      <c r="A192" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="B192" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C192" s="2">
+        <v>2049</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C193" s="2">
-        <v>2049</v>
-      </c>
-      <c r="D193" s="2" t="s">
+      <c r="A193" s="7" t="s">
         <v>367</v>
       </c>
+      <c r="B193" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C193" s="7">
+        <v>6076</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C194" s="6">
-        <v>6076</v>
-      </c>
-      <c r="D194" s="3" t="s">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
-      <c r="C195" s="7"/>
-      <c r="D195" s="4" t="s">
+      <c r="A195" s="7" t="s">
         <v>370</v>
       </c>
+      <c r="B195" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C195" s="7">
+        <v>1178</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C196" s="6">
-        <v>1178</v>
-      </c>
-      <c r="D196" s="3" t="s">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
-      <c r="C197" s="7"/>
-      <c r="D197" s="4" t="s">
+      <c r="A197" s="2" t="s">
         <v>373</v>
       </c>
+      <c r="B197" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C197" s="2">
+        <v>5096</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C198" s="2">
-        <v>5096</v>
-      </c>
-      <c r="D198" s="2" t="s">
+      <c r="A198" s="7" t="s">
         <v>375</v>
       </c>
+      <c r="B198" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C198" s="7">
+        <v>2471</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C199" s="6">
-        <v>2471</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>235</v>
+      <c r="A199" s="9"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="5" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
-      <c r="D200" s="5" t="s">
-        <v>237</v>
+      <c r="D200" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="7"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="4" t="s">
+      <c r="A201" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="B201" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C201" s="2">
+        <v>2049</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C202" s="2">
-        <v>2049</v>
-      </c>
-      <c r="D202" s="2" t="s">
+      <c r="A202" s="7" t="s">
         <v>379</v>
       </c>
+      <c r="B202" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="3" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="3" t="s">
+      <c r="A203" s="9"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="6" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="4" t="s">
+      <c r="A204" s="11" t="s">
         <v>382</v>
       </c>
+      <c r="B204" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C204" s="11">
+        <v>3556</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C205" s="6">
-        <v>3556</v>
-      </c>
-      <c r="D205" s="3" t="s">
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
-      <c r="C206" s="7"/>
-      <c r="D206" s="4" t="s">
-        <v>385</v>
-      </c>
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="228">
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="A204:A205"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -4542,222 +4745,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A191:A192"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="C199:C201"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
